--- a/data/trans_bre/P27F_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27F_4_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>316,7%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>423,33%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-35,72%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.721685986775141</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.620523225514219</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.428303677353857</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>3.166992591874115</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>4.238816984154968</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.3112324500854503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,24; 16,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 9,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,74; 2,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>35,31; 1629,17</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.242048770599119</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.8259803702653785</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.208503512198104</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.3531078132012632</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.15810089927105</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.32823073589789</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.778754825414369</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>16.29169433456701</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>72,36%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>31,22%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 10,74</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 7,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 3,58</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-39,68; 468,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-48,62; 290,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-77,93; 394,83</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.775036906114134</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.937475195684261</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.07843538009376719</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.723638232353873</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3134430085263716</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.02921394000285312</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>77,63%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-10,9%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>602,46%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.702833377655038</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.288966996680633</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.578331299104992</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3968251089803482</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4767568164117588</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8019697880465909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 5,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 2,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 7,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-49,63; 546,57</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-77,72; 248,86</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.74012406351122</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.860522277052996</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.338245149968142</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.686997064083031</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.891703037381759</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.637774988960406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +767,159 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>50,5%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>38,74%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>36,59%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.774954099861735</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.468533448050374</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.441241374691136</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.7763236609915438</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1537615599352607</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>6.476333865247624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 6,36</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 4,13</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 2,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-58,09; 304,34</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-61,08; 437,31</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-73,99; 361,43</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.413709507227757</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.76156224452571</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.131018464877222</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.496344236149707</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8042115588054559</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.549976629568937</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.519600366324504</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.108939278706992</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>5.465715356585907</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.101800301854255</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>420,49%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>48,7%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>523,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 8,71</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 2,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 5,37</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>8,98; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.248102659366712</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8701112568804417</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5638548506749209</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.5049563488491795</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3767252112029894</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3118124048458019</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.057038618932561</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.214098168388903</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.762639918503915</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.5809407656689937</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6104432564848665</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7465196152825218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,19</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.356155124312078</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.009087588204881</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.694857138267711</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>3.043404791637927</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4.389646488394964</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.397873296095806</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +927,219 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>106,86%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>46,16%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>64,58%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.868950081732757</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.496329852542139</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.250452628998051</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>4.204903811684887</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.4657351603382583</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>5.730506693681447</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 4,76</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 2,58</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 2,39</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>16,36; 248,14</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-16,12; 158,43</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-12,44; 218,36</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1.56392294750226</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.710791599762953</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.6421183573924363</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.08983805312113194</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.713496973214282</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.792075544423283</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.289772700092056</v>
+      </c>
+      <c r="F18" s="6" t="inlineStr"/>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.9176459360283393</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.240896792256101</v>
+      </c>
+      <c r="F19" s="6" t="inlineStr"/>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="n">
+        <v>3.06783468377707</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>6.002250597061578</v>
+      </c>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.923016318653849</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.054725854853162</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.052128340369356</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>1.068566214764836</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.4465144870782815</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.6630378376745453</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.8493508171878538</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.5476647291514999</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.1956083154552018</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.1636029494081172</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1769254118082501</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.1115913403853152</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.7626522589301</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.521796790839389</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.368444024088648</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>2.481372315309501</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.53410656771116</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>2.2628814203377</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1148,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
